--- a/data/trans_dic/P56$privada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$privada-Clase-trans_dic.xlsx
@@ -744,28 +744,28 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.6787399077189223</v>
+        <v>0.6581996771535946</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3916005495848945</v>
+        <v>0.4318296752301219</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9085878841468096</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.7158300497050821</v>
+        <v>0.8395261377164169</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5524751340992027</v>
+        <v>0.5449428926641054</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2183521336805951</v>
+        <v>0.1890894379292464</v>
       </c>
     </row>
     <row r="7">
@@ -789,7 +789,7 @@
         <v>0.187929779892063</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1441977356391627</v>
+        <v>0.1441977356391628</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7149021874484689</v>
@@ -813,7 +813,7 @@
         <v>0.09745939721550338</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.09530698343466359</v>
+        <v>0.09530698343466361</v>
       </c>
     </row>
     <row r="8">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0265359533846999</v>
+        <v>0.02507010910373548</v>
       </c>
     </row>
     <row r="9">
@@ -865,13 +865,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.7811779591093543</v>
+        <v>0.6468614221139236</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7825025705521552</v>
+        <v>0.7831735472343337</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4521571024608129</v>
+        <v>0.4172386222251728</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>1</v>
@@ -881,19 +881,19 @@
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.2365515044122488</v>
+        <v>0.272144659745075</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6161166708341197</v>
+        <v>0.6221348066612215</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4463126223124563</v>
+        <v>0.4736655216073475</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.256545485396568</v>
+        <v>0.2342349541588916</v>
       </c>
     </row>
     <row r="10">
@@ -917,7 +917,7 @@
         <v>0.2886874535858049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1902258229992774</v>
+        <v>0.1902258229992775</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2523179095677678</v>
@@ -929,7 +929,7 @@
         <v>0.3586047356300235</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1747488947625053</v>
+        <v>0.1747488947625052</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1078610687322843</v>
@@ -941,7 +941,7 @@
         <v>0.317403159323402</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1810511039279288</v>
+        <v>0.1810511039279287</v>
       </c>
     </row>
     <row r="11">
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08643876183176774</v>
+        <v>0.08651349050340637</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07094640800351888</v>
+        <v>0.06615197308902984</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0754350362051089</v>
+        <v>0.07157415411582574</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1047768428354729</v>
+        <v>0.130601691059265</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1021868230985112</v>
+        <v>0.09585400833549398</v>
       </c>
     </row>
     <row r="12">
@@ -993,35 +993,35 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.5701841884814044</v>
+        <v>0.5665405053428287</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6326145730626527</v>
+        <v>0.6076615722756239</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4025800932574964</v>
+        <v>0.403530854526117</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1</v>
+        <v>0.7656963634271083</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.8462825084072382</v>
+        <v>0.8465375655147791</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3168005982927615</v>
+        <v>0.3188407938034469</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.485636714423032</v>
+        <v>0.4259983706571431</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2305372567001601</v>
+        <v>0.2833838293179763</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5711763351366554</v>
+        <v>0.574120381783076</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3037406492016698</v>
+        <v>0.2986187363305987</v>
       </c>
     </row>
     <row r="13">
@@ -1057,7 +1057,7 @@
         <v>0.2330778864865581</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1526618434023845</v>
+        <v>0.1526618434023846</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.09401864867212396</v>
@@ -1080,38 +1080,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02870041988517021</v>
+        <v>0.03031912094398715</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02324798179194129</v>
+        <v>0.02321451559007376</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07656081520503193</v>
+        <v>0.06736358158405155</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05720004791341773</v>
+        <v>0.05747784111071391</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07652848876231649</v>
+        <v>0.0760203898083238</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02291417058915868</v>
+        <v>0.02487917813225874</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01766956618291448</v>
+        <v>0.01961748213815341</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05918133125911247</v>
+        <v>0.06033953936111315</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08992439844473664</v>
+        <v>0.08500391747320596</v>
       </c>
     </row>
     <row r="15">
@@ -1122,38 +1122,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2625423320337544</v>
+        <v>0.2869117466930149</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1948562439403252</v>
+        <v>0.1970721811678589</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2352959964661838</v>
+        <v>0.2176257860767184</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2595010520117904</v>
+        <v>0.2431830935000595</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.3120681747589319</v>
+        <v>0.3824175398504987</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4893218950203869</v>
+        <v>0.4783990164021319</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2569896116074387</v>
+        <v>0.2557217993430259</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2171295944948583</v>
+        <v>0.2200548895734744</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1633197380154153</v>
+        <v>0.1735838227295871</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2832721663914005</v>
+        <v>0.2674734966868566</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2127541446380831</v>
+        <v>0.2127294919603855</v>
       </c>
     </row>
     <row r="16">
@@ -1216,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03233917916341769</v>
+        <v>0.03178977093814502</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09105706192071232</v>
+        <v>0.08661426232724895</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06384190900153035</v>
+        <v>0.06161301025489466</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
@@ -1231,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1223194608525832</v>
+        <v>0.1227480278220493</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04081216953198247</v>
+        <v>0.03929085917990246</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.012537885999153</v>
+        <v>0.01255272202242285</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03562985294687163</v>
+        <v>0.03452510144829705</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1258535299496946</v>
+        <v>0.1345463589137455</v>
       </c>
     </row>
     <row r="18">
@@ -1255,37 +1255,37 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.3516453202318366</v>
+        <v>0.2996527245305764</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2815526535830292</v>
+        <v>0.2989267429460027</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.371704063375393</v>
+        <v>0.3848950933672406</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5018279603629783</v>
+        <v>0.4608913321385385</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.113023874574146</v>
+        <v>0.1084321404348959</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2483337476170486</v>
+        <v>0.2156227216160714</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2385041542297613</v>
+        <v>0.2346722823686795</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3092577472746585</v>
+        <v>0.3266295185998434</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1263541909405798</v>
+        <v>0.1149583862483218</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1872140310431248</v>
+        <v>0.1972776815274456</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2352916923068729</v>
+        <v>0.2442864074349862</v>
       </c>
     </row>
     <row r="19">
@@ -1342,28 +1342,28 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.01762071663588639</v>
+        <v>0.01631975213865646</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1450190404348068</v>
+        <v>0.1394967589632105</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08473554855269108</v>
+        <v>0.08368989674637645</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1592605140225143</v>
+        <v>0.1624305404761447</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01762071663588639</v>
+        <v>0.01631975213865646</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1450190404348068</v>
+        <v>0.1394967589632105</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08473554855269108</v>
+        <v>0.08368989674637645</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1536805619103746</v>
+        <v>0.1596522711092952</v>
       </c>
     </row>
     <row r="21">
@@ -1378,28 +1378,28 @@
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.1612371250927307</v>
+        <v>0.1498022527155143</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3138704517434027</v>
+        <v>0.315825240572093</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2604126142006408</v>
+        <v>0.2619429923143243</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2817034652030046</v>
+        <v>0.2911184739921647</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1612371250927307</v>
+        <v>0.1498022527155143</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3138704517434027</v>
+        <v>0.315825240572093</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2604126142006408</v>
+        <v>0.2619429923143243</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2814888565870007</v>
+        <v>0.2820611515218786</v>
       </c>
     </row>
     <row r="22">
@@ -1458,40 +1458,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.018181376761014</v>
+        <v>0.01837348025444355</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04062427276805123</v>
+        <v>0.04053167540858277</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07456329261075115</v>
+        <v>0.07115669828266706</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.107621749430613</v>
+        <v>0.100824774049146</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05938493835998161</v>
+        <v>0.0560636822959904</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09309008011409126</v>
+        <v>0.09261159658916134</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0942477065558235</v>
+        <v>0.1058575153735359</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1508350443887261</v>
+        <v>0.1457654278235697</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06070432082553867</v>
+        <v>0.05546334485986106</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.08914241542169064</v>
+        <v>0.08895698278922949</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1046366477767799</v>
+        <v>0.1055199573668582</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.145528114493933</v>
+        <v>0.1482048832066611</v>
       </c>
     </row>
     <row r="24">
@@ -1502,40 +1502,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1575053765667068</v>
+        <v>0.1655899125735037</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1791820635544638</v>
+        <v>0.1853536905330833</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2255368521676862</v>
+        <v>0.2262643532246799</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2211997948729057</v>
+        <v>0.2184569146959895</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2015131229078345</v>
+        <v>0.2034329393930317</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1975823627720284</v>
+        <v>0.1998340380051989</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2261713333326623</v>
+        <v>0.2393687891639046</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2229545566194285</v>
+        <v>0.2191299052397398</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1596703249052437</v>
+        <v>0.1621921427739912</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1788568851487007</v>
+        <v>0.1762043783462826</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2082544504946359</v>
+        <v>0.2056888841109815</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2056673034222974</v>
+        <v>0.2104297310156039</v>
       </c>
     </row>
     <row r="25">
@@ -1844,28 +1844,28 @@
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>4400</v>
+        <v>4267</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>2315</v>
+        <v>2553</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
         <v>3261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>4436</v>
+        <v>4882</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>5357</v>
+        <v>6282</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6279</v>
+        <v>6193</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>2685</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="8">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>494</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11">
@@ -2009,13 +2009,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>5105</v>
+        <v>4227</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3797</v>
+        <v>3800</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>4044</v>
+        <v>3732</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>3248</v>
@@ -2025,19 +2025,19 @@
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>2290</v>
+        <v>2634</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>4066</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>6073</v>
+        <v>6132</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>4176</v>
+        <v>4432</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>4778</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="12">
@@ -2147,7 +2147,7 @@
         <v>902</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1011</v>
+        <v>943</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1565</v>
+        <v>1485</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1854</v>
+        <v>2311</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3576</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="15">
@@ -2181,35 +2181,35 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>4045</v>
+        <v>4019</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6598</v>
+        <v>6338</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5736</v>
+        <v>5750</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4473</v>
+        <v>3425</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>6152</v>
+        <v>6153</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6572</v>
+        <v>6614</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5081</v>
+        <v>4457</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>4061</v>
+        <v>4992</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10109</v>
+        <v>10161</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>10629</v>
+        <v>10450</v>
       </c>
     </row>
     <row r="16">
@@ -2312,38 +2312,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>845</v>
+        <v>893</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4184</v>
+        <v>3681</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2306</v>
+        <v>2291</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>844</v>
+        <v>916</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1073</v>
+        <v>1191</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2753</v>
+        <v>2807</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>7624</v>
+        <v>7207</v>
       </c>
     </row>
     <row r="19">
@@ -2354,38 +2354,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7734</v>
+        <v>8452</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8283</v>
+        <v>8378</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5802</v>
+        <v>5366</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14182</v>
+        <v>13290</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>5684</v>
+        <v>6966</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>10696</v>
+        <v>10457</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>7745</v>
+        <v>7706</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7993</v>
+        <v>8101</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>9918</v>
+        <v>10541</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>13177</v>
+        <v>12442</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>18039</v>
+        <v>18036</v>
       </c>
     </row>
     <row r="20">
@@ -2492,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1709</v>
+        <v>1625</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1102</v>
+        <v>1064</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
@@ -2507,19 +2507,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10992</v>
+        <v>11030</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1123</v>
+        <v>1081</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2189</v>
+        <v>2121</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>13671</v>
+        <v>14615</v>
       </c>
     </row>
     <row r="23">
@@ -2531,37 +2531,37 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>6380</v>
+        <v>5437</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7228</v>
+        <v>7674</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>6974</v>
+        <v>7222</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8662</v>
+        <v>7955</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7386</v>
+        <v>7085</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>8882</v>
+        <v>7712</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>21432</v>
+        <v>21088</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>8506</v>
+        <v>8984</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>10549</v>
+        <v>9598</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>11502</v>
+        <v>12121</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>25558</v>
+        <v>26535</v>
       </c>
     </row>
     <row r="24">
@@ -2662,28 +2662,28 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>1056</v>
+        <v>978</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>15026</v>
+        <v>14453</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>8160</v>
+        <v>8059</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>17970</v>
+        <v>18328</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1056</v>
+        <v>978</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>15026</v>
+        <v>14453</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>8160</v>
+        <v>8059</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>17679</v>
+        <v>18366</v>
       </c>
     </row>
     <row r="27">
@@ -2698,28 +2698,28 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>9664</v>
+        <v>8978</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>32520</v>
+        <v>32723</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>25077</v>
+        <v>25225</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>31786</v>
+        <v>32848</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>9664</v>
+        <v>8978</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>32520</v>
+        <v>32723</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>25077</v>
+        <v>25225</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>32382</v>
+        <v>32448</v>
       </c>
     </row>
     <row r="28">
@@ -2822,40 +2822,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3189</v>
+        <v>3182</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5376</v>
+        <v>5130</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>11270</v>
+        <v>10559</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5555</v>
+        <v>5244</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>19016</v>
+        <v>18918</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>16077</v>
+        <v>18057</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>40671</v>
+        <v>39304</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>8609</v>
+        <v>7866</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>25208</v>
+        <v>25155</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>25393</v>
+        <v>25607</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>54480</v>
+        <v>55482</v>
       </c>
     </row>
     <row r="31">
@@ -2866,40 +2866,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>7605</v>
+        <v>7995</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>14067</v>
+        <v>14551</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>16261</v>
+        <v>16313</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>23164</v>
+        <v>22877</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>18851</v>
+        <v>19030</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>40361</v>
+        <v>40821</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>38580</v>
+        <v>40831</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>60117</v>
+        <v>59086</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>22645</v>
+        <v>23003</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>50577</v>
+        <v>49827</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>50538</v>
+        <v>49916</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>76994</v>
+        <v>78777</v>
       </c>
     </row>
     <row r="32">
